--- a/sudoku_datenbank.xlsx
+++ b/sudoku_datenbank.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Projekte\bachelorArbeit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC4694F6-203E-44E9-9E2A-0B7CDDB30D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C1F743-44FB-4457-90CD-4AC515F8E8D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29355" yWindow="1770" windowWidth="26655" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="9x9" sheetId="1" r:id="rId1"/>
@@ -21,204 +21,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>q</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>t</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>v</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>z</t>
-  </si>
-  <si>
-    <t>ba</t>
-  </si>
-  <si>
-    <t>bb</t>
-  </si>
-  <si>
-    <t>bc</t>
-  </si>
-  <si>
-    <t>bd</t>
-  </si>
-  <si>
-    <t>be</t>
-  </si>
-  <si>
-    <t>bf</t>
-  </si>
-  <si>
-    <t>bg</t>
-  </si>
-  <si>
-    <t>bh</t>
-  </si>
-  <si>
-    <t>bi</t>
-  </si>
-  <si>
-    <t>bj</t>
-  </si>
-  <si>
-    <t>bk</t>
-  </si>
-  <si>
-    <t>bl</t>
-  </si>
-  <si>
-    <t>bm</t>
-  </si>
-  <si>
-    <t>bn</t>
-  </si>
-  <si>
-    <t>bo</t>
-  </si>
-  <si>
-    <t>bp</t>
-  </si>
-  <si>
-    <t>bq</t>
-  </si>
-  <si>
-    <t>br</t>
-  </si>
-  <si>
-    <t>bs</t>
-  </si>
-  <si>
-    <t>bt</t>
-  </si>
-  <si>
-    <t>bu</t>
-  </si>
-  <si>
-    <t>bv</t>
-  </si>
-  <si>
-    <t>bw</t>
-  </si>
-  <si>
-    <t>bx</t>
-  </si>
-  <si>
-    <t>by</t>
-  </si>
-  <si>
-    <t>bz</t>
-  </si>
-  <si>
-    <t>ca</t>
-  </si>
-  <si>
-    <t>cb</t>
-  </si>
-  <si>
-    <t>cc</t>
-  </si>
-  <si>
-    <t>cd</t>
-  </si>
-  <si>
-    <t>ce</t>
-  </si>
-  <si>
-    <t>cf</t>
-  </si>
-  <si>
-    <t>cg</t>
-  </si>
-  <si>
-    <t>ch</t>
-  </si>
-  <si>
-    <t>ci</t>
-  </si>
-  <si>
-    <t>cj</t>
-  </si>
-  <si>
-    <t>ck</t>
-  </si>
-  <si>
-    <t>cl</t>
-  </si>
-  <si>
-    <t>cm</t>
-  </si>
-  <si>
-    <t>cn</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>cp</t>
-  </si>
-  <si>
-    <t>cq</t>
-  </si>
-  <si>
-    <t>cr</t>
-  </si>
-  <si>
-    <t>cs</t>
-  </si>
-  <si>
-    <t>ct</t>
-  </si>
-  <si>
-    <t>cu</t>
-  </si>
-  <si>
-    <t>cv</t>
-  </si>
-  <si>
-    <t>cw</t>
-  </si>
-  <si>
-    <t>cx</t>
-  </si>
-  <si>
-    <t>cy</t>
-  </si>
-  <si>
-    <t>cz</t>
-  </si>
-  <si>
-    <t>da</t>
-  </si>
-  <si>
-    <t>db</t>
-  </si>
-  <si>
-    <t>dc</t>
-  </si>
   <si>
     <t>a1</t>
   </si>
@@ -264,12 +66,210 @@
   <si>
     <t>b6</t>
   </si>
+  <si>
+    <t>b7</t>
+  </si>
+  <si>
+    <t>b8</t>
+  </si>
+  <si>
+    <t>b9</t>
+  </si>
+  <si>
+    <t>c1</t>
+  </si>
+  <si>
+    <t>c2</t>
+  </si>
+  <si>
+    <t>c3</t>
+  </si>
+  <si>
+    <t>c4</t>
+  </si>
+  <si>
+    <t>c5</t>
+  </si>
+  <si>
+    <t>c6</t>
+  </si>
+  <si>
+    <t>c7</t>
+  </si>
+  <si>
+    <t>c8</t>
+  </si>
+  <si>
+    <t>c9</t>
+  </si>
+  <si>
+    <t>d1</t>
+  </si>
+  <si>
+    <t>d2</t>
+  </si>
+  <si>
+    <t>d3</t>
+  </si>
+  <si>
+    <t>d4</t>
+  </si>
+  <si>
+    <t>d5</t>
+  </si>
+  <si>
+    <t>d6</t>
+  </si>
+  <si>
+    <t>d7</t>
+  </si>
+  <si>
+    <t>d8</t>
+  </si>
+  <si>
+    <t>d9</t>
+  </si>
+  <si>
+    <t>e1</t>
+  </si>
+  <si>
+    <t>e2</t>
+  </si>
+  <si>
+    <t>e3</t>
+  </si>
+  <si>
+    <t>e4</t>
+  </si>
+  <si>
+    <t>e5</t>
+  </si>
+  <si>
+    <t>e6</t>
+  </si>
+  <si>
+    <t>e7</t>
+  </si>
+  <si>
+    <t>e8</t>
+  </si>
+  <si>
+    <t>e9</t>
+  </si>
+  <si>
+    <t>f1</t>
+  </si>
+  <si>
+    <t>f2</t>
+  </si>
+  <si>
+    <t>f3</t>
+  </si>
+  <si>
+    <t>f4</t>
+  </si>
+  <si>
+    <t>f5</t>
+  </si>
+  <si>
+    <t>f6</t>
+  </si>
+  <si>
+    <t>f7</t>
+  </si>
+  <si>
+    <t>f8</t>
+  </si>
+  <si>
+    <t>f9</t>
+  </si>
+  <si>
+    <t>g1</t>
+  </si>
+  <si>
+    <t>g2</t>
+  </si>
+  <si>
+    <t>g3</t>
+  </si>
+  <si>
+    <t>g4</t>
+  </si>
+  <si>
+    <t>g5</t>
+  </si>
+  <si>
+    <t>g6</t>
+  </si>
+  <si>
+    <t>g7</t>
+  </si>
+  <si>
+    <t>g8</t>
+  </si>
+  <si>
+    <t>g9</t>
+  </si>
+  <si>
+    <t>h1</t>
+  </si>
+  <si>
+    <t>h2</t>
+  </si>
+  <si>
+    <t>h3</t>
+  </si>
+  <si>
+    <t>h4</t>
+  </si>
+  <si>
+    <t>h5</t>
+  </si>
+  <si>
+    <t>h6</t>
+  </si>
+  <si>
+    <t>h7</t>
+  </si>
+  <si>
+    <t>h8</t>
+  </si>
+  <si>
+    <t>h9</t>
+  </si>
+  <si>
+    <t>i1</t>
+  </si>
+  <si>
+    <t>i2</t>
+  </si>
+  <si>
+    <t>i3</t>
+  </si>
+  <si>
+    <t>i4</t>
+  </si>
+  <si>
+    <t>i5</t>
+  </si>
+  <si>
+    <t>i6</t>
+  </si>
+  <si>
+    <t>i7</t>
+  </si>
+  <si>
+    <t>i8</t>
+  </si>
+  <si>
+    <t>i9</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,13 +282,31 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -318,11 +336,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -627,499 +649,499 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CC501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A376" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView tabSelected="1" topLeftCell="BE1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="BP1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="BQ1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="BR1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="BS1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="BT1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="BU1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="BV1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="BW1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="BX1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="BY1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="BZ1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="CA1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="CB1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="CC1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>65</v>
-      </c>
     </row>
-    <row r="2" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>4</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>5</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>4</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>8</v>
-      </c>
-      <c r="V2">
-        <v>9</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>6</v>
-      </c>
-      <c r="Z2">
-        <v>3</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>3</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>9</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-      <c r="AK2">
-        <v>1</v>
-      </c>
-      <c r="AL2">
-        <v>7</v>
-      </c>
-      <c r="AM2">
-        <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>3</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <v>5</v>
-      </c>
-      <c r="AQ2">
-        <v>2</v>
-      </c>
-      <c r="AR2">
-        <v>0</v>
-      </c>
-      <c r="AS2">
-        <v>0</v>
-      </c>
-      <c r="AT2">
-        <v>2</v>
-      </c>
-      <c r="AU2">
-        <v>0</v>
-      </c>
-      <c r="AV2">
-        <v>0</v>
-      </c>
-      <c r="AW2">
-        <v>0</v>
-      </c>
-      <c r="AX2">
-        <v>0</v>
-      </c>
-      <c r="AY2">
-        <v>0</v>
-      </c>
-      <c r="AZ2">
-        <v>3</v>
-      </c>
-      <c r="BA2">
-        <v>0</v>
-      </c>
-      <c r="BB2">
-        <v>0</v>
-      </c>
-      <c r="BC2">
-        <v>0</v>
-      </c>
-      <c r="BD2">
-        <v>0</v>
-      </c>
-      <c r="BE2">
-        <v>0</v>
-      </c>
-      <c r="BF2">
-        <v>0</v>
-      </c>
-      <c r="BG2">
-        <v>0</v>
-      </c>
-      <c r="BH2">
-        <v>0</v>
-      </c>
-      <c r="BI2">
-        <v>8</v>
-      </c>
-      <c r="BJ2">
-        <v>0</v>
-      </c>
-      <c r="BK2">
-        <v>0</v>
-      </c>
-      <c r="BL2">
-        <v>0</v>
-      </c>
-      <c r="BM2">
-        <v>9</v>
-      </c>
-      <c r="BN2">
-        <v>0</v>
-      </c>
-      <c r="BO2">
-        <v>0</v>
-      </c>
-      <c r="BP2">
-        <v>0</v>
-      </c>
-      <c r="BQ2">
-        <v>0</v>
-      </c>
-      <c r="BR2">
-        <v>0</v>
-      </c>
-      <c r="BS2">
-        <v>0</v>
-      </c>
-      <c r="BT2">
-        <v>0</v>
-      </c>
-      <c r="BU2">
-        <v>5</v>
-      </c>
-      <c r="BV2">
-        <v>0</v>
-      </c>
-      <c r="BW2">
-        <v>2</v>
-      </c>
-      <c r="BX2">
-        <v>0</v>
-      </c>
-      <c r="BY2">
-        <v>1</v>
-      </c>
-      <c r="BZ2">
-        <v>9</v>
-      </c>
-      <c r="CA2">
-        <v>0</v>
-      </c>
-      <c r="CB2">
-        <v>0</v>
-      </c>
-      <c r="CC2">
+    <row r="2" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0</v>
+      </c>
+      <c r="K2" s="3">
+        <v>1</v>
+      </c>
+      <c r="L2" s="3">
+        <v>0</v>
+      </c>
+      <c r="M2" s="3">
+        <v>0</v>
+      </c>
+      <c r="N2" s="3">
+        <v>5</v>
+      </c>
+      <c r="O2" s="3">
+        <v>0</v>
+      </c>
+      <c r="P2" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>0</v>
+      </c>
+      <c r="R2" s="3">
+        <v>0</v>
+      </c>
+      <c r="S2" s="3">
+        <v>4</v>
+      </c>
+      <c r="T2" s="3">
+        <v>0</v>
+      </c>
+      <c r="U2" s="3">
+        <v>8</v>
+      </c>
+      <c r="V2" s="3">
+        <v>9</v>
+      </c>
+      <c r="W2" s="3">
+        <v>0</v>
+      </c>
+      <c r="X2" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="3">
+        <v>6</v>
+      </c>
+      <c r="Z2" s="3">
+        <v>3</v>
+      </c>
+      <c r="AA2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="3">
+        <v>3</v>
+      </c>
+      <c r="AC2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="3">
+        <v>9</v>
+      </c>
+      <c r="AG2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL2" s="3">
+        <v>7</v>
+      </c>
+      <c r="AM2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="3">
+        <v>3</v>
+      </c>
+      <c r="AO2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP2" s="3">
+        <v>5</v>
+      </c>
+      <c r="AQ2" s="3">
+        <v>2</v>
+      </c>
+      <c r="AR2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT2" s="3">
+        <v>2</v>
+      </c>
+      <c r="AU2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ2" s="3">
+        <v>3</v>
+      </c>
+      <c r="BA2" s="3">
+        <v>0</v>
+      </c>
+      <c r="BB2" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC2" s="3">
+        <v>0</v>
+      </c>
+      <c r="BD2" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE2" s="3">
+        <v>0</v>
+      </c>
+      <c r="BF2" s="3">
+        <v>0</v>
+      </c>
+      <c r="BG2" s="3">
+        <v>0</v>
+      </c>
+      <c r="BH2" s="3">
+        <v>0</v>
+      </c>
+      <c r="BI2" s="3">
+        <v>8</v>
+      </c>
+      <c r="BJ2" s="3">
+        <v>0</v>
+      </c>
+      <c r="BK2" s="3">
+        <v>0</v>
+      </c>
+      <c r="BL2" s="3">
+        <v>0</v>
+      </c>
+      <c r="BM2" s="3">
+        <v>9</v>
+      </c>
+      <c r="BN2" s="3">
+        <v>0</v>
+      </c>
+      <c r="BO2" s="3">
+        <v>0</v>
+      </c>
+      <c r="BP2" s="3">
+        <v>0</v>
+      </c>
+      <c r="BQ2" s="3">
+        <v>0</v>
+      </c>
+      <c r="BR2" s="3">
+        <v>0</v>
+      </c>
+      <c r="BS2" s="3">
+        <v>0</v>
+      </c>
+      <c r="BT2" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU2" s="3">
+        <v>5</v>
+      </c>
+      <c r="BV2" s="3">
+        <v>0</v>
+      </c>
+      <c r="BW2" s="3">
+        <v>2</v>
+      </c>
+      <c r="BX2" s="3">
+        <v>0</v>
+      </c>
+      <c r="BY2" s="3">
+        <v>1</v>
+      </c>
+      <c r="BZ2" s="3">
+        <v>9</v>
+      </c>
+      <c r="CA2" s="3">
+        <v>0</v>
+      </c>
+      <c r="CB2" s="3">
+        <v>0</v>
+      </c>
+      <c r="CC2" s="3">
         <v>3</v>
       </c>
     </row>
@@ -123379,6 +123401,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>